--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/004_属性对照表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/004_属性对照表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A58C1F8-DC4F-45EA-A89C-B057831298AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1649D9E-20E0-4269-B321-7F21F955B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26460" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attr|属性对照表" sheetId="3" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/004_属性对照表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/004_属性对照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1649D9E-20E0-4269-B321-7F21F955B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A606DDCE-A24F-457A-8953-88051D630DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attr|属性对照表" sheetId="3" r:id="rId1"/>
@@ -727,7 +727,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,14 +756,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -847,14 +839,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,13 +871,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1198,7 +1193,7 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1207,8 +1202,7 @@
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="6" width="8.375" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="5" max="7" width="8.375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="8.375" customWidth="1"/>
     <col min="10" max="10" width="25.5" customWidth="1"/>
@@ -2353,7 +2347,7 @@
       <c r="B38" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D38">
@@ -2381,7 +2375,7 @@
       <c r="B39" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D39">
@@ -2409,7 +2403,7 @@
       <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D40">
@@ -2437,7 +2431,7 @@
       <c r="B41" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>103</v>
       </c>
       <c r="D41">
@@ -2462,7 +2456,7 @@
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2490,10 +2484,10 @@
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D43">
@@ -2661,10 +2655,10 @@
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D49">
@@ -3132,7 +3126,7 @@
       <c r="A66">
         <v>63</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="11" t="s">
         <v>163</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -3159,10 +3153,10 @@
       <c r="A67">
         <v>2001</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>167</v>
       </c>
       <c r="D67">
@@ -3454,7 +3448,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
